--- a/퇴사자/퇴직 준비.xlsx
+++ b/퇴사자/퇴직 준비.xlsx
@@ -193,11 +193,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>KEB하나은행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>신우이앤디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEB하나은행 대전중앙지점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,7 +584,7 @@
   <dimension ref="B4:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -659,7 +659,7 @@
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">

--- a/퇴사자/퇴직 준비.xlsx
+++ b/퇴사자/퇴직 준비.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>퇴사전 준비 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +199,14 @@
   </si>
   <si>
     <t>KEB하나은행 대전중앙지점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노무법인 이산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.isanlabor.com/main/intro.php</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,7 +214,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,6 +227,14 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -238,17 +255,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -261,6 +281,453 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="18907443">
+          <a:off x="6162675" y="1838325"/>
+          <a:ext cx="2800350" cy="1952625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304801</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="2713936">
+          <a:off x="4171951" y="3133724"/>
+          <a:ext cx="2714625" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9972675" y="1447800"/>
+          <a:ext cx="3562350" cy="3457575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>614363</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="2763908">
+          <a:off x="2790825" y="1171575"/>
+          <a:ext cx="2276475" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854849" cy="621965"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="2505075"/>
+          <a:ext cx="854849" cy="621965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R84I-T1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>번 라인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854849" cy="621965"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="2609850"/>
+          <a:ext cx="854849" cy="621965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R84J-T1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>번 라인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="854849" cy="621965"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5343525" y="4352925"/>
+          <a:ext cx="854849" cy="621965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R84K-T1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>번 라인</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F59"/>
+  <dimension ref="B1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -595,6 +1062,16 @@
     <col min="5" max="5" width="104.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
@@ -859,6 +1336,26 @@
     <mergeCell ref="E7:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/퇴사자/퇴직 준비.xlsx
+++ b/퇴사자/퇴직 준비.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>퇴사전 준비 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>신우이앤디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>KEB하나은행 대전중앙지점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,34 @@
   </si>
   <si>
     <t>http://www.isanlabor.com/main/intro.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 계룡시 두마면 제1산단로 25-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(주)신우이앤디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>070-7525-0720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>314-81-93125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체당금 등 확인신청서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직증명서 1부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미지급 임금등에 대한 증명서 1부 ( 발생 거부시 사용자의 미지급 임금등에 대한 확인서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -261,10 +285,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1048,28 +1072,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F59"/>
+  <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.5" customWidth="1"/>
     <col min="3" max="3" width="24.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-    <col min="5" max="5" width="104.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="76.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C2" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
@@ -1106,7 +1130,10 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1114,40 +1141,46 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>31</v>
       </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>32</v>
       </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
@@ -1329,6 +1362,21 @@
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1340,6 +1388,7 @@
     <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/퇴사자/퇴직 준비.xlsx
+++ b/퇴사자/퇴직 준비.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Check list" sheetId="2" r:id="rId1"/>
+    <sheet name="소송관련" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>퇴사전 준비 사항</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,6 +231,46 @@
   </si>
   <si>
     <t>미지급 임금등에 대한 증명서 1부 ( 발생 거부시 사용자의 미지급 임금등에 대한 확인서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015-01~2016-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준소득월액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부한 보험료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-07~2017-06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-07~2018-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국민연금 - 2018.05.08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미납</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의료보험 - 2018.05.08</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,7 +278,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,13 +305,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -279,18 +342,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="41" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="쉼표 [0]" xfId="2" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -1041,32 +1118,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B5"/>
+  <dimension ref="B3:N49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>42</v>
       </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" s="6">
+        <v>206</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="7">
+        <f>K5/12</f>
+        <v>17.166666666666668</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="6">
+        <v>59237880</v>
+      </c>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>224580</v>
+      </c>
+      <c r="E10" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F10" s="4">
+        <f>D10/2</f>
+        <v>112290</v>
+      </c>
+      <c r="G10" s="4">
+        <f>E10/2</f>
+        <v>7350</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10">
+        <v>18</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3700000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>5994000</v>
+      </c>
+      <c r="N10" s="4">
+        <f>M10/K10</f>
+        <v>333000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E11" s="4">
+        <v>7350</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11" s="3">
+        <v>3673000</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3966720</v>
+      </c>
+      <c r="N11" s="4">
+        <f>M11/K11</f>
+        <v>330560</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E12" s="4">
+        <v>7350</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
+      <c r="L12" s="3">
+        <v>4055000</v>
+      </c>
+      <c r="M12" s="3">
+        <v>3284460</v>
+      </c>
+      <c r="N12" s="4">
+        <f>M12/K12</f>
+        <v>364940</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E13" s="4">
+        <v>7350</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E15" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E18" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="D19" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="4">
+        <v>112290</v>
+      </c>
+      <c r="E20" s="4">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>2016</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>113220</v>
+      </c>
+      <c r="E21" s="5">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4">
+        <v>113220</v>
+      </c>
+      <c r="E22" s="4">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>113220</v>
+      </c>
+      <c r="E23" s="4">
+        <v>7410</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="10">
+        <v>4</v>
+      </c>
+      <c r="D24" s="5">
+        <v>113950</v>
+      </c>
+      <c r="E24" s="5">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E26" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E27" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E28" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E30" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E31" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E32" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>2017</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E34" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>113950</v>
+      </c>
+      <c r="E35" s="4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="10">
+        <v>4</v>
+      </c>
+      <c r="D36" s="5">
+        <v>126150</v>
+      </c>
+      <c r="E36" s="5">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E39" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C41">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C42">
+        <v>10</v>
+      </c>
+      <c r="D42" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E42" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C43">
+        <v>11</v>
+      </c>
+      <c r="D43" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E43" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C44">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E44" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>2017</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E46" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4">
+        <v>126150</v>
+      </c>
+      <c r="E47" s="4">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="8">
+        <v>4</v>
+      </c>
+      <c r="D48" s="9">
+        <v>129060</v>
+      </c>
+      <c r="E48" s="9">
+        <v>9520</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1074,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
